--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DataStructures\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ED149E-7CB6-42F0-A042-A4068C3BE4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89972AC-0DFE-4A02-B4BD-CC0B5AB83B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-2487" yWindow="2212" windowWidth="18851" windowHeight="9845" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1866,7 +1866,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
@@ -1946,14 +1946,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" s="14" customFormat="1" ht="20.3">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
     </row>
